--- a/hexaboards/prueba.xlsx
+++ b/hexaboards/prueba.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="13"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,6 +22,7 @@
     <sheet name="ProjectSetup" sheetId="12" state="visible" r:id="rId13"/>
     <sheet name="PS_NamSprint" sheetId="13" state="visible" r:id="rId14"/>
     <sheet name="MembersManagement" sheetId="14" state="visible" r:id="rId15"/>
+    <sheet name="UserProjectMapping" sheetId="15" state="visible" r:id="rId16"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="195">
   <si>
     <t xml:space="preserve">Username</t>
   </si>
@@ -41,396 +42,408 @@
     <t xml:space="preserve">Password</t>
   </si>
   <si>
+    <t xml:space="preserve">Ivonnecat1-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ivonne@2</t>
+  </si>
+  <si>
     <t xml:space="preserve">IvonneK</t>
   </si>
   <si>
+    <t xml:space="preserve">Ivonne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">holis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jejejs</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E-mail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Confirm Password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ivonne rocha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PruebaIvonne@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ivonne@1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alexis Rivera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ralexisrivera@hotmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alex_Riverar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Testnine*2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marcos Rivera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rmarcorivera@hotmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alex-Riverar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lorem ipsum dolor sit amet consectetur adipiscing elit interdumd proin duis sagittis euismod ante ornare felisd augue nisl sociis netus bibendum cursus penatibus. Mattis natoque magna sapien nostra tortor gravida pharetra ultricies cras maurisd ornare congue curae rhoncus nullam cum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">remployee123@hotmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Employees321r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">remployee_123@hotmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emmp109r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carlos Contreras</t>
+  </si>
+  <si>
+    <t xml:space="preserve">remployee123hotmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Employee43r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maria Jose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">remployee123@.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Employee123r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hugo Jacobo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">remployee123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Employee124r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andrea Contreras</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@remployee123.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Employee125r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carlos Martinez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Employee126r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maria Siempre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rmarisiempre@hotmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Employee 345r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hirosa Can</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rhirosasiem@hotmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emplor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cantaral Mari</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rcantaralMari@hotmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EmployeeLoremipsumdolorsitametconsecteturadipiscing elitinterdumr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Testing Huri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rtesinghuro@hotmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">America diaz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rnumero@hotmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Employee*r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fernanda Si</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rfernandasiempre@hotmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Employee.123r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andrea Carmen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">randyvaz@hotmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Employee+123r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Over Siem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">roveriem@hotmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Employee@r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edson Manuel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">redmanu@hotmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Employee127r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gustavo Rocha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">remployee892@hotmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Employee128r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Testonetwothree*1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brayan Farias</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rbrayanfa@hotmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Employee129r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">testnine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Javier Vargas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rcargas@hotmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Employee130r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hector Gonzales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rpomllak@hotmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Employee131r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ricardo Martin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">remployeesaim@hotmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Employee_12r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Martin Lopez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rcorgmas@hotmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Employee_13r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lalito Lalito</t>
+  </si>
+  <si>
+    <t xml:space="preserve">roptamolog@hotmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Patricio Estrella</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rsadasd@hotmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32456r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andres Rocha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">randres@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andresr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andres1-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andrea Contreras Trejo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">randrea@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andrear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andrea1-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">            @.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hello</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nuria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ivonnecat-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fernanda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fer@1997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nuria Contreras</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nuria Montserrat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anahi @ Alejandra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anahi R#odriguez40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hugoxca###</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Siempreser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FERsiem(#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alma34@</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Horser45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Email</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fernandita@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">almendra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">andrea@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                @     .                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Start_date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">End_date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Role</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test for ivonne domi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Information designed and updated for make tests</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29/09/2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test for ivonne domi 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29/09/2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scrum Master</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ivonne-1</t>
   </si>
   <si>
-    <t xml:space="preserve">Ivonne</t>
-  </si>
-  <si>
-    <t xml:space="preserve">holis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jejejs</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E-mail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Confirm Password</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ivonne Contreras</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rivonne@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alexis Rivera</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ralexisrivera@hotmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alex_Riverar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Testnine*2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marcos Rivera</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rmarcorivera@hotmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alex-Riverar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lorem ipsum dolor sit amet consectetur adipiscing elit interdumd proin duis sagittis euismod ante ornare felisd augue nisl sociis netus bibendum cursus penatibus. Mattis natoque magna sapien nostra tortor gravida pharetra ultricies cras maurisd ornare congue curae rhoncus nullam cum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">remployee123@hotmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Employees321r</t>
-  </si>
-  <si>
-    <t xml:space="preserve">remployee_123@hotmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Emmp109r</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carlos Contreras</t>
-  </si>
-  <si>
-    <t xml:space="preserve">remployee123hotmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Employee43r</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maria Jose</t>
-  </si>
-  <si>
-    <t xml:space="preserve">remployee123@.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Employee123r</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hugo Jacobo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">remployee123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Employee124r</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Andrea Contreras</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@remployee123.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Employee125r</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carlos Martinez</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Employee126r</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maria Siempre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rmarisiempre@hotmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Employee 345r</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hirosa Can</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rhirosasiem@hotmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Emplor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cantaral Mari</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rcantaralMari@hotmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EmployeeLoremipsumdolorsitametconsecteturadipiscing elitinterdumr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Testing Huri</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rtesinghuro@hotmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">America diaz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rnumero@hotmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Employee*r</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fernanda Si</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rfernandasiempre@hotmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Employee.123r</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Andrea Carmen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">randyvaz@hotmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Employee+123r</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Over Siem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">roveriem@hotmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Employee@r</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Edson Manuel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">redmanu@hotmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Employee127r</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gustavo Rocha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">remployee892@hotmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Employee128r</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Testonetwothree*1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brayan Farias</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rbrayanfa@hotmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Employee129r</t>
-  </si>
-  <si>
-    <t xml:space="preserve">testnine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Javier Vargas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rcargas@hotmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Employee130r</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hector Gonzales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rpomllak@hotmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Employee131r</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ricardo Martin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">remployeesaim@hotmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Employee_12r</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Martin Lopez</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rcorgmas@hotmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Employee_13r</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lalito Lalito</t>
-  </si>
-  <si>
-    <t xml:space="preserve">roptamolog@hotmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Patricio Estrella</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rsadasd@hotmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32456r</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Andres Rocha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">randres@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Andresr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Andres1-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Andrea Contreras Trejo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">randrea@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Andrear</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Andrea1-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">            @.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hello</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fernanda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fer@1997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anahi Contreras</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HugoalejandrolopezmateoignacioavestruzySiemprequebuscoestenombreesdemaseSiemprequebuscoestenombreesdemasdeMuchoscaracteresporesocreoquEnodebefuncionaresteesminombRefalsosuperlargoyaunpiensoquetIeneposibilidaddeseraceptadOporlaaplicacionapesardesertanLargoycasillegaralostrescientoscaracteres</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anahi 123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anahi @ Alejandra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anahi R#odriguez40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hugo23siem@</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hugoxca###</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Siempreser</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FERsiem(#</t>
-  </si>
-  <si>
-    <t xml:space="preserve">alma34@</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Horser45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Email</t>
-  </si>
-  <si>
-    <t xml:space="preserve">anahi@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">almendra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">andrea@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                @     .                </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Start_date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">End_date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Role</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tests Viewsr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Information designed and updated for make tests</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29/09/2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tests Checks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29/09/2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scrum Master</t>
-  </si>
-  <si>
     <t xml:space="preserve">remove memberr</t>
   </si>
   <si>
@@ -524,16 +537,16 @@
     <t xml:space="preserve">25/09/2019</t>
   </si>
   <si>
-    <t xml:space="preserve">ivonne@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ivon554@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ivonnesita</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ivonne01@</t>
+    <t xml:space="preserve">Julieta Venegas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">julieta@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">juliet-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juliet@1</t>
   </si>
   <si>
     <t xml:space="preserve">Jose_rochita</t>
@@ -542,13 +555,16 @@
     <t xml:space="preserve">Jose@1234</t>
   </si>
   <si>
-    <t xml:space="preserve">This is the description of the project</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This is the new description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This is a description</t>
+    <t xml:space="preserve">This is the description of the project for Rocha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is the new description for Hugo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is a description for Pedro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">djnjksnxksjx kjsxnskjnxksjnx kxjnasxkjans iwjiwis ksmkams ksmkasm ksmsksm  kmkmska kmsksmks mksmx kmsk djnjksnxksjx kjsxnskjnxksjnx kxjnasxkjans iwjiwis ksmkams ksmkasm ksmsksm  kmkmska kmsksmks mksmx kmsk djnjksnxksjx kjsxnskjnxksjnx kxjnasxkjans iwjiwis ksmkams ksmkasm ksmsksm  kmkmska kmsksmks mksmx kmsk djnjksnxksjx kjsxnskjnxksjnx kxjnasxkjans iwjiwis ksmkams ksmkasm ksmsksm  kmkmska kmsksmks mksmx kmsk djnjksnxksjx kjsxnskjnxksjnx kxjnasxkjans iwjiwis ksmkams ksmkasm ksmsksm  kmkmska kmsksmks mksmx kmsk djnjksnxksjx kjsxnskjnxksjnx kxjnasxkjans iwjiwis ksmkams ksmkasm ksmsksm  kmkmska kmsksmks mksmx kmsk djnjksnxksjx kjsxnskjnxksjnx kxjnasxkjans iwjiwis ksmkams ksmkasm ksmsksm  kmkmska kmsksmks mksmx kmsk djnjksnxksjx kjsxnskjnxksjnx kxjnasxkjans iwjiwis ksmkams ksmkasm ksmsksm  kmkmska kmsksmks mksmx kmsk djnjksnxksjx kjsxnskjnxksjnx kxjnasxkjans iwjiwis ksmkams ksmkasm ksmsksm  kmkmska kmsksmks mksmx kmsk djnjksnxksjx kjsxnskjnxksjnx kxjnasxkjans iwjiwis ksmkams ksmkasm ksmsksm  kmkmska kmsksmks mksmxp</t>
   </si>
   <si>
     <t xml:space="preserve">Fernandita</t>
@@ -557,9 +573,6 @@
     <t xml:space="preserve">Test@123</t>
   </si>
   <si>
-    <t xml:space="preserve">djnjksnxksjx kjsxnskjnxksjnx kxjnasxkjans iwjiwis ksmkams ksmkasm ksmsksm  kmkmska kmsksmks mksmx kmsk djnjksnxksjx kjsxnskjnxksjnx kxjnasxkjans iwjiwis ksmkams ksmkasm ksmsksm  kmkmska kmsksmks mksmx kmsk djnjksnxksjx kjsxnskjnxksjnx kxjnasxkjans iwjiwis ksmkams ksmkasm ksmsksm  kmkmska kmsksmks mksmx kmsk djnjksnxksjx kjsxnskjnxksjnx kxjnasxkjans iwjiwis ksmkams ksmkasm ksmsksm  kmkmska kmsksmks mksmx kmsk djnjksnxksjx kjsxnskjnxksjnx kxjnasxkjans iwjiwis ksmkams ksmkasm ksmsksm  kmkmska kmsksmks mksmx kmsk djnjksnxksjx kjsxnskjnxksjnx kxjnasxkjans iwjiwis ksmkams ksmkasm ksmsksm  kmkmska kmsksmks mksmx kmsk djnjksnxksjx kjsxnskjnxksjnx kxjnasxkjans iwjiwis ksmkams ksmkasm ksmsksm  kmkmska kmsksmks mksmx kmsk djnjksnxksjx kjsxnskjnxksjnx kxjnasxkjans iwjiwis ksmkams ksmkasm ksmsksm  kmkmska kmsksmks mksmx kmsk djnjksnxksjx kjsxnskjnxksjnx kxjnasxkjans iwjiwis ksmkams ksmkasm ksmsksm  kmkmska kmsksmks mksmx kmsk djnjksnxksjx kjsxnskjnxksjnx kxjnasxkjans iwjiwis ksmkams ksmkasm ksmsksm  kmkmska kmsksmks mksmxp</t>
-  </si>
-  <si>
     <t xml:space="preserve">djnjksnxksjx kjsxnskjnxksjnx kxjnasxkjans iwjiwis ksmkams ksmkasm ksmsksm  kmkmska kmsksmks mksmx kmsk djnjksnxksjx kjsxnskjnxksjnx kxjnasxkjans iwjiwis ksmkams ksmkasm ksmsksm  kmkmska kmsksmks mksmx kmsk djnjksnxksjx kjsxnskjnxksjnx kxjnasxkjans iwjiwis ksmkams ksmkasm ksmsksm  kmkmska kmsksmks mksmx kmsk djnjksnxksjx kjsxnskjnxksjnx kxjnasxkjans iwjiwis ksmkams ksmkasm ksmsksm  kmkmska kmsksmks mksmx kmsk djnjksnxksjx kjsxnskjnxksjnx kxjnasxkjans iwjiwis ksmkams ksmkasm ksmsksm  kmkmska kmsksmks mksmx kmsk djnjksnxksjx kjsxnskjnxksjnx kxjnasxkjans iwjiwis ksmkams ksmkasm ksmsksm  kmkmska kmsksmks mksmx kmsk djnjksnxksjx kjsxnskjnxksjnx kxjnasxkjans iwjiwis ksmkams ksmkasm ksmsksm  kmkmska kmsksmks mksmx kmsk djnjksnxksjx kjsxnskjnxksjnx kxjnasxkjans iwjiwis ksmkams ksmkasm ksmsksm  kmkmska kmsksmks mksmx kmsk djnjksnxksjx kjsxnskjnxksjnx kxjnasxkjans iwjiwis ksmkams ksmkasm ksmsksm  kmkmska kmsksmks mksmx kmsk djnjksnxksjx kjsxnskjnxksjnx kxjnasxkjans iwjiwis ksmkams ksmkasm ksmsksm  kmkmska kmsksmks mksmx</t>
   </si>
   <si>
@@ -572,7 +585,7 @@
     <t xml:space="preserve">Sprint 1k</t>
   </si>
   <si>
-    <t xml:space="preserve">Sprint 2k</t>
+    <t xml:space="preserve">Sprint 1 Pedro</t>
   </si>
   <si>
     <t xml:space="preserve">Sprint @k</t>
@@ -591,6 +604,21 @@
   </si>
   <si>
     <t xml:space="preserve">JennyRivera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ivonne Rios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ivone@hexaware.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tests Views Test 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tests Views test2</t>
   </si>
 </sst>
 </file>
@@ -730,7 +758,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -747,6 +775,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF3465A4"/>
+        <bgColor rgb="FF3366FF"/>
       </patternFill>
     </fill>
   </fills>
@@ -798,7 +832,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="50">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -891,10 +925,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -989,6 +1019,18 @@
     </xf>
     <xf numFmtId="164" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1000,6 +1042,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF3465A4"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -1010,11 +1112,11 @@
   </sheetPr>
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.94921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="32.42"/>
@@ -1039,30 +1141,30 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3"/>
       <c r="B4" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1071,21 +1173,24 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="Ivonne@2"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -1103,30 +1208,30 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F10" activeCellId="0" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.25390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.93"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.02"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="39" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="41" t="s">
-        <v>167</v>
-      </c>
-      <c r="B2" s="41" t="s">
-        <v>168</v>
+      <c r="A2" s="40" t="s">
+        <v>171</v>
+      </c>
+      <c r="B2" s="40" t="s">
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -1150,28 +1255,28 @@
   </sheetPr>
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.25390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="33.87"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="42" t="s">
-        <v>169</v>
+      <c r="A2" s="41" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="42" t="s">
-        <v>170</v>
+      <c r="A3" s="41" t="s">
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -1192,11 +1297,11 @@
   </sheetPr>
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.43359375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="48.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.43"/>
@@ -1205,83 +1310,83 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="31" t="s">
-        <v>122</v>
-      </c>
-      <c r="B1" s="31" t="s">
+      <c r="A1" s="30" t="s">
+        <v>125</v>
+      </c>
+      <c r="B1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="30" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="43" t="s">
-        <v>171</v>
-      </c>
-      <c r="B2" s="43" t="s">
-        <v>172</v>
-      </c>
-      <c r="C2" s="43" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="3" s="45" customFormat="true" ht="121.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="44" t="s">
-        <v>174</v>
-      </c>
-      <c r="B3" s="43" t="s">
-        <v>172</v>
-      </c>
-      <c r="C3" s="43" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="4" s="45" customFormat="true" ht="155.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="44" t="s">
+    <row r="2" customFormat="false" ht="58.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="42" t="s">
         <v>175</v>
       </c>
-      <c r="B4" s="43" t="s">
-        <v>172</v>
-      </c>
-      <c r="C4" s="43" t="s">
-        <v>173</v>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="42" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" s="44" customFormat="true" ht="121.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="43" t="s">
+        <v>176</v>
+      </c>
+      <c r="B3" s="42" t="s">
+        <v>177</v>
+      </c>
+      <c r="C3" s="42" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="4" s="44" customFormat="true" ht="155.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="43" t="s">
+        <v>179</v>
+      </c>
+      <c r="B4" s="42" t="s">
+        <v>177</v>
+      </c>
+      <c r="C4" s="42" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="11" t="s">
-        <v>176</v>
-      </c>
-      <c r="B5" s="43" t="s">
-        <v>172</v>
-      </c>
-      <c r="C5" s="43" t="s">
-        <v>173</v>
+        <v>180</v>
+      </c>
+      <c r="B5" s="42" t="s">
+        <v>177</v>
+      </c>
+      <c r="C5" s="42" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="14" t="n">
         <v>1234567</v>
       </c>
-      <c r="B6" s="43" t="s">
-        <v>172</v>
-      </c>
-      <c r="C6" s="43" t="s">
-        <v>173</v>
+      <c r="B6" s="42" t="s">
+        <v>177</v>
+      </c>
+      <c r="C6" s="42" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="46"/>
-      <c r="B7" s="43" t="s">
-        <v>172</v>
-      </c>
-      <c r="C7" s="43" t="s">
-        <v>173</v>
+      <c r="A7" s="45"/>
+      <c r="B7" s="42" t="s">
+        <v>177</v>
+      </c>
+      <c r="C7" s="42" t="s">
+        <v>178</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="Test@123"/>
+    <hyperlink ref="C2" r:id="rId1" display="Ivonne@2"/>
     <hyperlink ref="C3" r:id="rId2" display="Test@123"/>
     <hyperlink ref="C4" r:id="rId3" display="Test@123"/>
     <hyperlink ref="A5" r:id="rId4" display="a new char@cters_ special"/>
@@ -1306,11 +1411,11 @@
   </sheetPr>
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.43359375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="34.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.69"/>
@@ -1318,73 +1423,73 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="30" t="s">
+        <v>181</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="42" t="s">
+        <v>182</v>
+      </c>
+      <c r="B2" s="42" t="s">
         <v>177</v>
       </c>
-      <c r="B1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="31" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="43" t="s">
+      <c r="C2" s="42" t="s">
         <v>178</v>
       </c>
-      <c r="B2" s="43" t="s">
-        <v>172</v>
-      </c>
-      <c r="C2" s="43" t="s">
-        <v>173</v>
-      </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="43" t="s">
-        <v>179</v>
-      </c>
-      <c r="B3" s="43" t="s">
-        <v>172</v>
-      </c>
-      <c r="C3" s="43" t="s">
-        <v>173</v>
+      <c r="A3" s="42" t="s">
+        <v>183</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="42" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="43" t="s">
-        <v>180</v>
-      </c>
-      <c r="B4" s="43" t="s">
-        <v>172</v>
-      </c>
-      <c r="C4" s="43" t="s">
-        <v>173</v>
+      <c r="A4" s="42" t="s">
+        <v>184</v>
+      </c>
+      <c r="B4" s="42" t="s">
+        <v>177</v>
+      </c>
+      <c r="C4" s="42" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="47" t="s">
-        <v>181</v>
-      </c>
-      <c r="B5" s="43" t="s">
-        <v>172</v>
-      </c>
-      <c r="C5" s="43" t="s">
-        <v>173</v>
+      <c r="A5" s="46" t="s">
+        <v>185</v>
+      </c>
+      <c r="B5" s="42" t="s">
+        <v>177</v>
+      </c>
+      <c r="C5" s="42" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="43"/>
-      <c r="B6" s="43" t="s">
-        <v>172</v>
-      </c>
-      <c r="C6" s="43" t="s">
-        <v>173</v>
+      <c r="A6" s="42"/>
+      <c r="B6" s="42" t="s">
+        <v>177</v>
+      </c>
+      <c r="C6" s="42" t="s">
+        <v>178</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" display="Test@123"/>
-    <hyperlink ref="C3" r:id="rId2" display="Test@123"/>
+    <hyperlink ref="C3" r:id="rId2" display="Ivonne@2"/>
     <hyperlink ref="C4" r:id="rId3" display="Test@123"/>
     <hyperlink ref="C5" r:id="rId4" display="Test@123"/>
     <hyperlink ref="C6" r:id="rId5" display="Test@123"/>
@@ -1406,88 +1511,222 @@
   </sheetPr>
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.25390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="31" t="s">
-        <v>182</v>
-      </c>
-      <c r="B1" s="31" t="s">
+      <c r="A1" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="B1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="30" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="46" t="s">
-        <v>183</v>
-      </c>
-      <c r="B2" s="43" t="s">
-        <v>172</v>
-      </c>
-      <c r="C2" s="43" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="46" t="s">
-        <v>184</v>
-      </c>
-      <c r="B3" s="43" t="s">
-        <v>172</v>
-      </c>
-      <c r="C3" s="43" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="46" t="s">
-        <v>185</v>
-      </c>
-      <c r="B4" s="43" t="s">
-        <v>172</v>
-      </c>
-      <c r="C4" s="43" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="46" t="s">
-        <v>172</v>
-      </c>
-      <c r="B5" s="43" t="s">
-        <v>172</v>
-      </c>
-      <c r="C5" s="43" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="46"/>
-      <c r="B6" s="43" t="s">
-        <v>172</v>
-      </c>
-      <c r="C6" s="43" t="s">
-        <v>173</v>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="45" t="s">
+        <v>187</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="45" t="s">
+        <v>188</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="45" t="s">
+        <v>189</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="45" t="s">
+        <v>187</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="45"/>
+      <c r="B6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="46"/>
-      <c r="B7" s="46"/>
-      <c r="C7" s="46"/>
+      <c r="A7" s="47"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="47"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="Test@123"/>
-    <hyperlink ref="C3" r:id="rId2" display="Test@123"/>
-    <hyperlink ref="C4" r:id="rId3" display="Test@123"/>
-    <hyperlink ref="C5" r:id="rId4" display="Test@123"/>
-    <hyperlink ref="C6" r:id="rId5" display="Test@123"/>
+    <hyperlink ref="C2" r:id="rId1" display="Ivonne@2"/>
+    <hyperlink ref="C3" r:id="rId2" display="Ivonne@2"/>
+    <hyperlink ref="C4" r:id="rId3" display="Ivonne@2"/>
+    <hyperlink ref="C5" r:id="rId4" display="Ivonne@2"/>
+    <hyperlink ref="C6" r:id="rId5" display="Ivonne@2"/>
+  </hyperlinks>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:P3"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F12" activeCellId="0" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.89"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="49" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="48" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="48" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="48" t="s">
+        <v>125</v>
+      </c>
+      <c r="G1" s="48" t="s">
+        <v>126</v>
+      </c>
+      <c r="H1" s="48" t="s">
+        <v>127</v>
+      </c>
+      <c r="I1" s="48" t="s">
+        <v>128</v>
+      </c>
+      <c r="J1" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="48" t="s">
+        <v>190</v>
+      </c>
+      <c r="L1" s="48" t="s">
+        <v>125</v>
+      </c>
+      <c r="M1" s="48" t="s">
+        <v>126</v>
+      </c>
+      <c r="N1" s="48" t="s">
+        <v>127</v>
+      </c>
+      <c r="O1" s="48" t="s">
+        <v>128</v>
+      </c>
+      <c r="P1" s="48" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="32" t="s">
+        <v>191</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>192</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="32" t="s">
+        <v>193</v>
+      </c>
+      <c r="F2" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="G2" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="H2" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="I2" s="32" t="s">
+        <v>134</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K2" s="32" t="s">
+        <v>194</v>
+      </c>
+      <c r="L2" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="M2" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="N2" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="O2" s="32" t="s">
+        <v>134</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="32"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="ivone@hexaware.com"/>
+    <hyperlink ref="D2" r:id="rId2" display="Ivonne@2"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -1506,11 +1745,11 @@
   </sheetPr>
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C27" activeCellId="0" sqref="C27"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.94921875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.70703125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.97"/>
@@ -1520,10 +1759,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>0</v>
@@ -1532,581 +1771,583 @@
         <v>1</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F1" s="7"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="F2" s="8"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F3" s="8"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F4" s="8"/>
     </row>
     <row r="5" customFormat="false" ht="109.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="9" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F5" s="8"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="10"/>
       <c r="B6" s="10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F6" s="8"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F7" s="8"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F8" s="8"/>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F9" s="8"/>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F10" s="8"/>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F11" s="8"/>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F12" s="8"/>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F13" s="8"/>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F14" s="8"/>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C15" s="12"/>
       <c r="D15" s="12" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F15" s="8"/>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F16" s="8"/>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F17" s="8"/>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F18" s="8"/>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F19" s="8"/>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F20" s="8"/>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F21" s="8"/>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F22" s="8"/>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D23" s="11"/>
       <c r="E23" s="11" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F23" s="8"/>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="12" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F24" s="8"/>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E25" s="11"/>
       <c r="F25" s="8"/>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F26" s="8"/>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F27" s="8"/>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="13" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F28" s="8"/>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="4" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="4" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="ivonne@gmail.com"/>
-    <hyperlink ref="B3" r:id="rId2" display="alexisrivera@hotmail.com"/>
-    <hyperlink ref="B4" r:id="rId3" display="marcorivera@hotmail.com"/>
-    <hyperlink ref="B5" r:id="rId4" display="employee123@hotmail.com"/>
-    <hyperlink ref="B6" r:id="rId5" display="employee_123@hotmail.com"/>
-    <hyperlink ref="B12" r:id="rId6" display="marisiempre@hotmail.com"/>
-    <hyperlink ref="B13" r:id="rId7" display="hirosasiem@hotmail.com"/>
-    <hyperlink ref="B14" r:id="rId8" display="cantaralMari@hotmail.com"/>
-    <hyperlink ref="B15" r:id="rId9" display="tesinghuro@hotmail.com"/>
-    <hyperlink ref="B16" r:id="rId10" display="numero@hotmail.com"/>
-    <hyperlink ref="B17" r:id="rId11" display="fernandasiempre@hotmail.com"/>
-    <hyperlink ref="B18" r:id="rId12" display="andyvaz@hotmail.com"/>
-    <hyperlink ref="B19" r:id="rId13" display="overiem@hotmail.com"/>
-    <hyperlink ref="C19" r:id="rId14" display="Employee@r"/>
-    <hyperlink ref="B20" r:id="rId15" display="edmanu@hotmail.com"/>
-    <hyperlink ref="B21" r:id="rId16" display="employee892@hotmail.com"/>
-    <hyperlink ref="B22" r:id="rId17" display="brayanfa@hotmail.com"/>
-    <hyperlink ref="B23" r:id="rId18" display="cargas@hotmail.com"/>
-    <hyperlink ref="B24" r:id="rId19" display="pomllak@hotmail.com"/>
-    <hyperlink ref="B25" r:id="rId20" display="employeesaim@hotmail.com"/>
-    <hyperlink ref="B26" r:id="rId21" display="corgmas@hotmail.com"/>
-    <hyperlink ref="B27" r:id="rId22" display="optamolog@hotmail.com"/>
-    <hyperlink ref="B28" r:id="rId23" display="sadasd@hotmail.com"/>
-    <hyperlink ref="B29" r:id="rId24" display="andres@gmail.com"/>
-    <hyperlink ref="B30" r:id="rId25" display="andrea@gmail.com"/>
+    <hyperlink ref="B2" r:id="rId1" display="PruebaIvonne@gmail.com"/>
+    <hyperlink ref="D2" r:id="rId2" display="Ivonne@1"/>
+    <hyperlink ref="E2" r:id="rId3" display="Ivonne@1"/>
+    <hyperlink ref="B3" r:id="rId4" display="ralexisrivera@hotmail.com"/>
+    <hyperlink ref="B4" r:id="rId5" display="rmarcorivera@hotmail.com"/>
+    <hyperlink ref="B5" r:id="rId6" display="remployee123@hotmail.com"/>
+    <hyperlink ref="B6" r:id="rId7" display="remployee_123@hotmail.com"/>
+    <hyperlink ref="B12" r:id="rId8" display="rmarisiempre@hotmail.com"/>
+    <hyperlink ref="B13" r:id="rId9" display="rhirosasiem@hotmail.com"/>
+    <hyperlink ref="B14" r:id="rId10" display="rcantaralMari@hotmail.com"/>
+    <hyperlink ref="B15" r:id="rId11" display="rtesinghuro@hotmail.com"/>
+    <hyperlink ref="B16" r:id="rId12" display="rnumero@hotmail.com"/>
+    <hyperlink ref="B17" r:id="rId13" display="rfernandasiempre@hotmail.com"/>
+    <hyperlink ref="B18" r:id="rId14" display="randyvaz@hotmail.com"/>
+    <hyperlink ref="B19" r:id="rId15" display="roveriem@hotmail.com"/>
+    <hyperlink ref="C19" r:id="rId16" display="Employee@r"/>
+    <hyperlink ref="B20" r:id="rId17" display="redmanu@hotmail.com"/>
+    <hyperlink ref="B21" r:id="rId18" display="remployee892@hotmail.com"/>
+    <hyperlink ref="B22" r:id="rId19" display="rbrayanfa@hotmail.com"/>
+    <hyperlink ref="B23" r:id="rId20" display="rcargas@hotmail.com"/>
+    <hyperlink ref="B24" r:id="rId21" display="rpomllak@hotmail.com"/>
+    <hyperlink ref="B25" r:id="rId22" display="remployeesaim@hotmail.com"/>
+    <hyperlink ref="B26" r:id="rId23" display="rcorgmas@hotmail.com"/>
+    <hyperlink ref="B27" r:id="rId24" display="roptamolog@hotmail.com"/>
+    <hyperlink ref="B28" r:id="rId25" display="rsadasd@hotmail.com"/>
+    <hyperlink ref="B29" r:id="rId26" display="randres@gmail.com"/>
+    <hyperlink ref="B30" r:id="rId27" display="randrea@gmail.com"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
@@ -2125,18 +2366,18 @@
   </sheetPr>
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.94921875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.70703125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="30.02"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B1" s="15"/>
     </row>
@@ -2154,7 +2395,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="16" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B4" s="17"/>
     </row>
@@ -2192,18 +2433,19 @@
   </sheetPr>
   <dimension ref="A1:S8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.94921875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.70703125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="37.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="29.26"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>0</v>
@@ -2228,88 +2470,90 @@
       <c r="R1" s="19"/>
       <c r="S1" s="19"/>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="20"/>
-      <c r="B2" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="C2" s="21" t="s">
-        <v>105</v>
+    <row r="2" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="22" t="s">
-        <v>106</v>
-      </c>
-      <c r="B4" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="C4" s="21" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B5" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="C5" s="21" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C5" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="22" t="s">
-        <v>108</v>
-      </c>
-      <c r="B6" s="24" t="s">
-        <v>104</v>
+        <v>111</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>107</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>105</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="C7" s="24" t="s">
         <v>109</v>
-      </c>
-      <c r="B7" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="C7" s="25" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="B8" s="24" t="s">
-        <v>104</v>
+        <v>113</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>108</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="Fer@1997"/>
+    <hyperlink ref="C2" r:id="rId1" display="Ivonne@2"/>
     <hyperlink ref="C3" r:id="rId2" display="Fer@1997"/>
-    <hyperlink ref="C4" r:id="rId3" display="Fer@1997"/>
-    <hyperlink ref="C5" r:id="rId4" display="Fer@1997"/>
-    <hyperlink ref="C6" r:id="rId5" display="Fer@1997"/>
+    <hyperlink ref="C4" r:id="rId3" display="Ivonne@1"/>
+    <hyperlink ref="C5" r:id="rId4" display="Ivonne@2"/>
+    <hyperlink ref="C6" r:id="rId5" display="Ivonne@2"/>
     <hyperlink ref="C7" r:id="rId6" display="Fer@1997"/>
     <hyperlink ref="C8" r:id="rId7" display="Fer@1997"/>
   </hyperlinks>
@@ -2330,15 +2574,18 @@
   </sheetPr>
   <dimension ref="A1:S8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.94921875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.70703125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="32.68"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
-        <v>1</v>
+        <v>114</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>0</v>
@@ -2365,90 +2612,91 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="22" t="s">
-        <v>111</v>
-      </c>
-      <c r="B2" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="C2" s="21" t="s">
-        <v>105</v>
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="22" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="B4" s="24" t="s">
-        <v>104</v>
+        <v>116</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>108</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="22" t="n">
         <v>123131</v>
       </c>
-      <c r="B5" s="24" t="s">
-        <v>104</v>
+      <c r="B5" s="23" t="s">
+        <v>108</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="22" t="s">
-        <v>114</v>
-      </c>
-      <c r="B6" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="C6" s="25" t="s">
-        <v>105</v>
+        <v>117</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="B7" s="24" t="s">
-        <v>104</v>
+        <v>118</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>108</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="22" t="s">
-        <v>116</v>
-      </c>
-      <c r="B8" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="C8" s="26" t="s">
-        <v>105</v>
+        <v>119</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="Fer@1997"/>
-    <hyperlink ref="C3" r:id="rId2" display="Fer@1997"/>
-    <hyperlink ref="C4" r:id="rId3" display="Fer@1997"/>
-    <hyperlink ref="C5" r:id="rId4" display="Fer@1997"/>
-    <hyperlink ref="C6" r:id="rId5" display="Fer@1997"/>
-    <hyperlink ref="C7" r:id="rId6" display="Fer@1997"/>
-    <hyperlink ref="C8" r:id="rId7" display="Fer@1997"/>
+    <hyperlink ref="A2" r:id="rId1" display="Ivonne@2"/>
+    <hyperlink ref="C2" r:id="rId2" display="Ivonne@1"/>
+    <hyperlink ref="C3" r:id="rId3" display="Fer@1997"/>
+    <hyperlink ref="C4" r:id="rId4" display="Fer@1997"/>
+    <hyperlink ref="C5" r:id="rId5" display="Fer@1997"/>
+    <hyperlink ref="C6" r:id="rId6" display="Fer@1997"/>
+    <hyperlink ref="C7" r:id="rId7" display="Fer@1997"/>
+    <hyperlink ref="C8" r:id="rId8" display="Fer@1997"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
@@ -2467,18 +2715,20 @@
   </sheetPr>
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.5078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="36.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="21.1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>0</v>
@@ -2488,73 +2738,73 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="27"/>
+      <c r="A2" s="26"/>
       <c r="B2" s="20" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="B3" s="20" t="s">
-        <v>104</v>
+        <v>121</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>105</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="28" t="s">
-        <v>119</v>
-      </c>
-      <c r="B4" s="24" t="s">
-        <v>104</v>
+      <c r="A4" s="27" t="s">
+        <v>122</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>108</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="29" t="s">
-        <v>104</v>
+      <c r="A5" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="28" t="s">
+        <v>108</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="30" t="s">
-        <v>120</v>
+      <c r="A6" s="29" t="s">
+        <v>123</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="30" t="s">
-        <v>121</v>
+      <c r="A7" s="29" t="s">
+        <v>124</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" display="Fer@1997"/>
-    <hyperlink ref="C3" r:id="rId2" display="Fer@1997"/>
+    <hyperlink ref="C3" r:id="rId2" display="Ivonne@1"/>
     <hyperlink ref="C4" r:id="rId3" display="Fer@1997"/>
     <hyperlink ref="C5" r:id="rId4" display="Fer@1997"/>
     <hyperlink ref="C6" r:id="rId5" display="Fer@1997"/>
@@ -2577,11 +2827,11 @@
   </sheetPr>
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.94921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="29.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.02"/>
@@ -2590,410 +2840,414 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="31" t="s">
-        <v>122</v>
-      </c>
-      <c r="E1" s="31" t="s">
-        <v>123</v>
-      </c>
-      <c r="F1" s="31" t="s">
-        <v>124</v>
+      <c r="C1" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="30" t="s">
+        <v>125</v>
+      </c>
+      <c r="E1" s="30" t="s">
+        <v>126</v>
+      </c>
+      <c r="F1" s="30" t="s">
+        <v>127</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="H1" s="32" t="s">
+        <v>128</v>
+      </c>
+      <c r="H1" s="31" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="33" t="s">
-        <v>126</v>
-      </c>
-      <c r="D2" s="33" t="s">
-        <v>127</v>
-      </c>
-      <c r="E2" s="33" t="s">
-        <v>128</v>
-      </c>
-      <c r="F2" s="33" t="s">
-        <v>128</v>
-      </c>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
+      <c r="C2" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="D2" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="E2" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="F2" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
     </row>
     <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="33" t="s">
-        <v>129</v>
-      </c>
-      <c r="D3" s="33" t="s">
-        <v>127</v>
-      </c>
-      <c r="E3" s="33" t="s">
-        <v>128</v>
-      </c>
-      <c r="F3" s="33" t="s">
+      <c r="C3" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="D3" s="32" t="s">
         <v>130</v>
       </c>
-      <c r="G3" s="33" t="s">
+      <c r="E3" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="H3" s="33" t="s">
+      <c r="F3" s="32" t="s">
+        <v>133</v>
+      </c>
+      <c r="G3" s="32" t="s">
+        <v>134</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="32" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="33" t="s">
-        <v>132</v>
-      </c>
-      <c r="D4" s="33" t="s">
-        <v>127</v>
-      </c>
-      <c r="E4" s="33" t="s">
+      <c r="B4" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>136</v>
+      </c>
+      <c r="D4" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="E4" s="32" t="s">
+        <v>137</v>
+      </c>
+      <c r="F4" s="32" t="s">
+        <v>138</v>
+      </c>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+    </row>
+    <row r="5" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>139</v>
+      </c>
+      <c r="D5" s="32" t="s">
+        <v>140</v>
+      </c>
+      <c r="E5" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="F5" s="32" t="s">
         <v>133</v>
       </c>
-      <c r="F4" s="33" t="s">
+      <c r="G5" s="32" t="s">
         <v>134</v>
       </c>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-    </row>
-    <row r="5" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="33" t="s">
+      <c r="H5" s="32" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="21.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="32" t="s">
         <v>135</v>
       </c>
-      <c r="D5" s="33" t="s">
-        <v>136</v>
-      </c>
-      <c r="E5" s="33" t="s">
-        <v>128</v>
-      </c>
-      <c r="F5" s="33" t="s">
+      <c r="C6" s="32" t="s">
+        <v>141</v>
+      </c>
+      <c r="D6" s="32" t="s">
         <v>130</v>
       </c>
-      <c r="G5" s="33" t="s">
+      <c r="E6" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="H5" s="33" t="s">
+      <c r="F6" s="32" t="s">
+        <v>133</v>
+      </c>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="32" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="21.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="33" t="s">
-        <v>137</v>
-      </c>
-      <c r="D6" s="33" t="s">
-        <v>127</v>
-      </c>
-      <c r="E6" s="33" t="s">
-        <v>128</v>
-      </c>
-      <c r="F6" s="33" t="s">
+      <c r="B7" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="C7" s="33"/>
+      <c r="D7" s="32" t="s">
+        <v>142</v>
+      </c>
+      <c r="E7" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="F7" s="32" t="s">
+        <v>133</v>
+      </c>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="C8" s="32" t="s">
+        <v>143</v>
+      </c>
+      <c r="D8" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="E8" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="F8" s="32" t="s">
+        <v>133</v>
+      </c>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+    </row>
+    <row r="9" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="C9" s="32" t="s">
+        <v>145</v>
+      </c>
+      <c r="D9" s="32" t="s">
+        <v>146</v>
+      </c>
+      <c r="E9" s="32" t="s">
+        <v>147</v>
+      </c>
+      <c r="F9" s="32" t="s">
+        <v>133</v>
+      </c>
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="C10" s="32" t="s">
+        <v>148</v>
+      </c>
+      <c r="D10" s="33"/>
+      <c r="E10" s="32" t="s">
+        <v>149</v>
+      </c>
+      <c r="F10" s="34" t="n">
+        <v>44085</v>
+      </c>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="C11" s="32" t="s">
+        <v>150</v>
+      </c>
+      <c r="D11" s="32" t="s">
+        <v>151</v>
+      </c>
+      <c r="E11" s="35" t="n">
+        <v>43737</v>
+      </c>
+      <c r="F11" s="32" t="s">
+        <v>133</v>
+      </c>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
+    </row>
+    <row r="12" customFormat="false" ht="359.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="C12" s="32" t="s">
+        <v>152</v>
+      </c>
+      <c r="D12" s="32" t="s">
+        <v>153</v>
+      </c>
+      <c r="E12" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="33"/>
+    </row>
+    <row r="13" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="C13" s="32" t="s">
+        <v>154</v>
+      </c>
+      <c r="D13" s="32" t="s">
+        <v>155</v>
+      </c>
+      <c r="E13" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
+    </row>
+    <row r="14" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="C14" s="32" t="s">
+        <v>156</v>
+      </c>
+      <c r="D14" s="32" t="s">
+        <v>157</v>
+      </c>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="C15" s="32" t="s">
+        <v>158</v>
+      </c>
+      <c r="D15" s="32" t="s">
+        <v>159</v>
+      </c>
+      <c r="E15" s="34" t="n">
+        <v>43686</v>
+      </c>
+      <c r="F15" s="32" t="s">
+        <v>160</v>
+      </c>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="33"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="33"/>
+    </row>
+    <row r="18" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="C18" s="32" t="s">
+        <v>161</v>
+      </c>
+      <c r="D18" s="32" t="s">
         <v>130</v>
       </c>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="34"/>
-      <c r="D7" s="33" t="s">
-        <v>138</v>
-      </c>
-      <c r="E7" s="33" t="s">
-        <v>128</v>
-      </c>
-      <c r="F7" s="33" t="s">
-        <v>130</v>
-      </c>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34"/>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="33" t="s">
-        <v>139</v>
-      </c>
-      <c r="D8" s="33" t="s">
-        <v>140</v>
-      </c>
-      <c r="E8" s="33" t="s">
-        <v>128</v>
-      </c>
-      <c r="F8" s="33" t="s">
-        <v>130</v>
-      </c>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
-    </row>
-    <row r="9" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="33" t="s">
-        <v>141</v>
-      </c>
-      <c r="D9" s="33" t="s">
-        <v>142</v>
-      </c>
-      <c r="E9" s="33" t="s">
-        <v>143</v>
-      </c>
-      <c r="F9" s="33" t="s">
-        <v>130</v>
-      </c>
-      <c r="G9" s="34"/>
-      <c r="H9" s="34"/>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="33" t="s">
-        <v>144</v>
-      </c>
-      <c r="D10" s="34"/>
-      <c r="E10" s="33" t="s">
-        <v>145</v>
-      </c>
-      <c r="F10" s="35" t="n">
-        <v>44085</v>
-      </c>
-      <c r="G10" s="34"/>
-      <c r="H10" s="34"/>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="33" t="s">
-        <v>146</v>
-      </c>
-      <c r="D11" s="33" t="s">
-        <v>147</v>
-      </c>
-      <c r="E11" s="36" t="n">
-        <v>43737</v>
-      </c>
-      <c r="F11" s="33" t="s">
-        <v>130</v>
-      </c>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34"/>
-    </row>
-    <row r="12" customFormat="false" ht="359.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="33" t="s">
-        <v>148</v>
-      </c>
-      <c r="D12" s="33" t="s">
-        <v>149</v>
-      </c>
-      <c r="E12" s="33" t="s">
-        <v>128</v>
-      </c>
-      <c r="F12" s="34"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="34"/>
-    </row>
-    <row r="13" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" s="33" t="s">
-        <v>150</v>
-      </c>
-      <c r="D13" s="33" t="s">
-        <v>151</v>
-      </c>
-      <c r="E13" s="33" t="s">
-        <v>128</v>
-      </c>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="34"/>
-    </row>
-    <row r="14" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="B14" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="33" t="s">
-        <v>152</v>
-      </c>
-      <c r="D14" s="33" t="s">
-        <v>153</v>
-      </c>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="B15" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="33" t="s">
-        <v>154</v>
-      </c>
-      <c r="D15" s="33" t="s">
-        <v>155</v>
-      </c>
-      <c r="E15" s="35" t="n">
-        <v>43686</v>
-      </c>
-      <c r="F15" s="33" t="s">
-        <v>156</v>
-      </c>
-      <c r="G15" s="34"/>
-      <c r="H15" s="34"/>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="B16" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" s="34"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="34"/>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="B17" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17" s="34"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="34"/>
-    </row>
-    <row r="18" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="B18" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="33" t="s">
-        <v>157</v>
-      </c>
-      <c r="D18" s="33" t="s">
-        <v>127</v>
-      </c>
-      <c r="E18" s="33" t="s">
-        <v>158</v>
-      </c>
-      <c r="F18" s="33" t="s">
-        <v>159</v>
-      </c>
-      <c r="G18" s="34"/>
-      <c r="H18" s="34"/>
+      <c r="E18" s="32" t="s">
+        <v>162</v>
+      </c>
+      <c r="F18" s="32" t="s">
+        <v>163</v>
+      </c>
+      <c r="G18" s="33"/>
+      <c r="H18" s="33"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="B19" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19" s="33" t="s">
-        <v>160</v>
-      </c>
-      <c r="D19" s="33" t="s">
-        <v>161</v>
-      </c>
-      <c r="E19" s="33" t="s">
-        <v>162</v>
-      </c>
-      <c r="F19" s="34"/>
-      <c r="G19" s="33" t="s">
-        <v>131</v>
-      </c>
-      <c r="H19" s="33" t="s">
+      <c r="A19" s="32" t="s">
         <v>4</v>
       </c>
+      <c r="B19" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="C19" s="32" t="s">
+        <v>164</v>
+      </c>
+      <c r="D19" s="32" t="s">
+        <v>165</v>
+      </c>
+      <c r="E19" s="32" t="s">
+        <v>166</v>
+      </c>
+      <c r="F19" s="33"/>
+      <c r="G19" s="32" t="s">
+        <v>134</v>
+      </c>
+      <c r="H19" s="32" t="s">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="Ivonne@2"/>
+    <hyperlink ref="B3" r:id="rId2" display="Ivonne@2"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -3011,48 +3265,49 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.43359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="18.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="25.33"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="31" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
+      <c r="C1" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="30" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>163</v>
+      <c r="B2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="ivonne@gmail.com"/>
+    <hyperlink ref="B2" r:id="rId1" display="Ivonne@1"/>
+    <hyperlink ref="D2" r:id="rId2" display="PruebaIvonne@gmail.com"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -3071,11 +3326,11 @@
   </sheetPr>
   <dimension ref="A1:AMJ2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G11" activeCellId="0" sqref="G11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.37109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.26"/>
@@ -3084,38 +3339,39 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="31" t="s">
-        <v>117</v>
-      </c>
-      <c r="C1" s="31" t="s">
+      <c r="A1" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="30" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" s="39" customFormat="true" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="37" t="s">
-        <v>164</v>
-      </c>
-      <c r="C2" s="38" t="s">
-        <v>165</v>
-      </c>
-      <c r="D2" s="37" t="s">
-        <v>166</v>
+    <row r="2" s="38" customFormat="true" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="36" t="s">
+        <v>167</v>
+      </c>
+      <c r="B2" s="36" t="s">
+        <v>168</v>
+      </c>
+      <c r="C2" s="37" t="s">
+        <v>169</v>
+      </c>
+      <c r="D2" s="36" t="s">
+        <v>170</v>
       </c>
       <c r="AMI2" s="0"/>
       <c r="AMJ2" s="0"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="ivon554@gmail.com"/>
+    <hyperlink ref="B2" r:id="rId1" display="julieta@gmail.com"/>
+    <hyperlink ref="D2" r:id="rId2" display="Juliet@1"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/hexaboards/prueba.xlsx
+++ b/hexaboards/prueba.xlsx
@@ -5,12 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="14"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="UserRegistration" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="User-Project Mapping" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Esta NO" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="EP_Name" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="EP_Password" sheetId="5" state="visible" r:id="rId6"/>
     <sheet name="EP_Email" sheetId="6" state="visible" r:id="rId7"/>
@@ -1112,11 +1112,11 @@
   </sheetPr>
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.73046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="32.42"/>
@@ -1212,7 +1212,7 @@
       <selection pane="topLeft" activeCell="F10" activeCellId="0" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.25390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.93"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.02"/>
@@ -1259,7 +1259,7 @@
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.25390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="33.87"/>
   </cols>
@@ -1301,7 +1301,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.43359375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="48.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.43"/>
@@ -1415,7 +1415,7 @@
       <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.43359375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="34.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.69"/>
@@ -1511,11 +1511,11 @@
   </sheetPr>
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.25390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="30" t="s">
@@ -1611,11 +1611,11 @@
   </sheetPr>
   <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F12" activeCellId="0" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.89"/>
   </cols>
@@ -1749,7 +1749,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.70703125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.73046875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.97"/>
@@ -2370,7 +2370,7 @@
       <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.70703125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.73046875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="30.02"/>
   </cols>
@@ -2437,7 +2437,7 @@
       <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.70703125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.73046875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="37.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="29.26"/>
@@ -2578,7 +2578,7 @@
       <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.70703125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.73046875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="32.68"/>
   </cols>
@@ -2719,7 +2719,7 @@
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.5234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="36.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.83"/>
@@ -2831,7 +2831,7 @@
       <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.73046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="29.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.02"/>
@@ -3269,7 +3269,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.43359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.86"/>
@@ -3326,11 +3326,11 @@
   </sheetPr>
   <dimension ref="A1:AMJ2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.37109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.26"/>

--- a/hexaboards/prueba.xlsx
+++ b/hexaboards/prueba.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" state="visible" r:id="rId2"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="195">
   <si>
     <t xml:space="preserve">Username</t>
   </si>
@@ -42,7 +42,7 @@
     <t xml:space="preserve">Password</t>
   </si>
   <si>
-    <t xml:space="preserve">Ivonnecat1-</t>
+    <t xml:space="preserve">Ivonne</t>
   </si>
   <si>
     <t xml:space="preserve">Ivonne@2</t>
@@ -51,9 +51,6 @@
     <t xml:space="preserve">IvonneK</t>
   </si>
   <si>
-    <t xml:space="preserve">Ivonne</t>
-  </si>
-  <si>
     <t xml:space="preserve">holis</t>
   </si>
   <si>
@@ -72,10 +69,10 @@
     <t xml:space="preserve">Confirm Password</t>
   </si>
   <si>
-    <t xml:space="preserve">Ivonne rocha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PruebaIvonne@gmail.com</t>
+    <t xml:space="preserve">Ivonne Jose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ivonnetesting@gmail.com</t>
   </si>
   <si>
     <t xml:space="preserve">Ivonne@1</t>
@@ -354,24 +351,24 @@
     <t xml:space="preserve">Hello</t>
   </si>
   <si>
-    <t xml:space="preserve">Nuria</t>
+    <t xml:space="preserve">Juan Angel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fernanda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fer@1997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nuria Contreras</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nuria Montserrat</t>
   </si>
   <si>
     <t xml:space="preserve">Ivonnecat-</t>
   </si>
   <si>
-    <t xml:space="preserve">Fernanda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fer@1997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nuria Contreras</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nuria Montserrat</t>
-  </si>
-  <si>
     <t xml:space="preserve">Anahi @ Alejandra</t>
   </si>
   <si>
@@ -432,7 +429,7 @@
     <t xml:space="preserve">29/09/2019</t>
   </si>
   <si>
-    <t xml:space="preserve">Test for ivonne domi 6</t>
+    <t xml:space="preserve">Project1</t>
   </si>
   <si>
     <t xml:space="preserve">29/09/2020</t>
@@ -549,10 +546,16 @@
     <t xml:space="preserve">Juliet@1</t>
   </si>
   <si>
-    <t xml:space="preserve">Jose_rochita</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jose@1234</t>
+    <t xml:space="preserve">Sprint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sprint2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sprint1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name Sprint</t>
   </si>
   <si>
     <t xml:space="preserve">This is the description of the project for Rocha</t>
@@ -561,6 +564,9 @@
     <t xml:space="preserve">This is the new description for Hugo</t>
   </si>
   <si>
+    <t xml:space="preserve">Story2</t>
+  </si>
+  <si>
     <t xml:space="preserve">This is a description for Pedro</t>
   </si>
   <si>
@@ -582,12 +588,6 @@
     <t xml:space="preserve">Sprint name</t>
   </si>
   <si>
-    <t xml:space="preserve">Sprint 1k</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sprint 1 Pedro</t>
-  </si>
-  <si>
     <t xml:space="preserve">Sprint @k</t>
   </si>
   <si>
@@ -600,7 +600,7 @@
     <t xml:space="preserve">Andrea</t>
   </si>
   <si>
-    <t xml:space="preserve">azariel</t>
+    <t xml:space="preserve">Azariel</t>
   </si>
   <si>
     <t xml:space="preserve">JennyRivera</t>
@@ -615,22 +615,23 @@
     <t xml:space="preserve">ivone@hexaware.com</t>
   </si>
   <si>
-    <t xml:space="preserve">Tests Views Test 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tests Views test2</t>
+    <t xml:space="preserve">Hexaboard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hexaboard2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="MM/DD/YY"/>
-    <numFmt numFmtId="166" formatCode="YYYY\-MM\-DD"/>
+    <numFmt numFmtId="165" formatCode="DD/MM/YY"/>
+    <numFmt numFmtId="166" formatCode="MM/DD/YY"/>
+    <numFmt numFmtId="167" formatCode="YYYY\-MM\-DD"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="20">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -757,8 +758,15 @@
       <family val="0"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -768,7 +776,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF333399"/>
-        <bgColor rgb="FF003366"/>
+        <bgColor rgb="FF355269"/>
       </patternFill>
     </fill>
     <fill>
@@ -779,8 +787,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF355269"/>
+        <bgColor rgb="FF3465A4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF3465A4"/>
-        <bgColor rgb="FF3366FF"/>
+        <bgColor rgb="FF355269"/>
       </patternFill>
     </fill>
   </fills>
@@ -832,7 +846,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="52">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -977,6 +991,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -993,6 +1011,10 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="19" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1025,11 +1047,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1099,7 +1121,7 @@
       <rgbColor rgb="FF993300"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="FF355269"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -1113,10 +1135,10 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.73046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="32.42"/>
@@ -1148,7 +1170,7 @@
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3"/>
       <c r="B4" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1156,15 +1178,15 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1173,24 +1195,21 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="Ivonne@2"/>
-  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -1206,37 +1225,49 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F10" activeCellId="0" sqref="F10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.93"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.02"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="40" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="40" t="s">
+      <c r="C1" s="41" t="s">
+        <v>170</v>
+      </c>
+      <c r="D1" s="41" t="s">
         <v>171</v>
       </c>
-      <c r="B2" s="40" t="s">
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="0" t="s">
         <v>172</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>171</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="Jose@1234"/>
+    <hyperlink ref="B2" r:id="rId1" display="Ivonne@2"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -1253,30 +1284,47 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="33.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="40.69"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
+      </c>
+      <c r="B1" s="41" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="41" t="s">
-        <v>173</v>
+      <c r="A2" s="43" t="s">
+        <v>174</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="41" t="s">
-        <v>174</v>
+      <c r="A3" s="43" t="s">
+        <v>175</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -1295,13 +1343,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="48.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.43"/>
@@ -1311,7 +1359,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="30" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>0</v>
@@ -1319,69 +1367,75 @@
       <c r="C1" s="30" t="s">
         <v>1</v>
       </c>
+      <c r="D1" s="30" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="58.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="42" t="s">
-        <v>175</v>
+      <c r="A2" s="44" t="s">
+        <v>177</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="42" t="s">
+      <c r="C2" s="44" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" s="44" customFormat="true" ht="121.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="43" t="s">
-        <v>176</v>
-      </c>
-      <c r="B3" s="42" t="s">
-        <v>177</v>
-      </c>
-      <c r="C3" s="42" t="s">
+      <c r="D2" s="0" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="3" s="46" customFormat="true" ht="121.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="45" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="4" s="44" customFormat="true" ht="155.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="43" t="s">
+      <c r="B3" s="44" t="s">
         <v>179</v>
       </c>
-      <c r="B4" s="42" t="s">
-        <v>177</v>
-      </c>
-      <c r="C4" s="42" t="s">
-        <v>178</v>
+      <c r="C3" s="44" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="4" s="46" customFormat="true" ht="155.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="45" t="s">
+        <v>181</v>
+      </c>
+      <c r="B4" s="44" t="s">
+        <v>179</v>
+      </c>
+      <c r="C4" s="44" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="B5" s="44" t="s">
+        <v>179</v>
+      </c>
+      <c r="C5" s="44" t="s">
         <v>180</v>
-      </c>
-      <c r="B5" s="42" t="s">
-        <v>177</v>
-      </c>
-      <c r="C5" s="42" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="14" t="n">
         <v>1234567</v>
       </c>
-      <c r="B6" s="42" t="s">
-        <v>177</v>
-      </c>
-      <c r="C6" s="42" t="s">
-        <v>178</v>
+      <c r="B6" s="44" t="s">
+        <v>179</v>
+      </c>
+      <c r="C6" s="44" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="45"/>
-      <c r="B7" s="42" t="s">
-        <v>177</v>
-      </c>
-      <c r="C7" s="42" t="s">
-        <v>178</v>
+      <c r="A7" s="47"/>
+      <c r="B7" s="44" t="s">
+        <v>179</v>
+      </c>
+      <c r="C7" s="44" t="s">
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -1412,10 +1466,10 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="34.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.69"/>
@@ -1424,7 +1478,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="30" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>0</v>
@@ -1434,61 +1488,61 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="42" t="s">
-        <v>182</v>
-      </c>
-      <c r="B2" s="42" t="s">
-        <v>177</v>
-      </c>
-      <c r="C2" s="42" t="s">
-        <v>178</v>
+      <c r="A2" s="44" t="s">
+        <v>172</v>
+      </c>
+      <c r="B2" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="44" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="42" t="s">
-        <v>183</v>
+      <c r="A3" s="44" t="s">
+        <v>172</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="42" t="s">
+      <c r="C3" s="44" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="44" t="s">
         <v>184</v>
       </c>
-      <c r="B4" s="42" t="s">
-        <v>177</v>
-      </c>
-      <c r="C4" s="42" t="s">
-        <v>178</v>
+      <c r="B4" s="44" t="s">
+        <v>179</v>
+      </c>
+      <c r="C4" s="44" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="46" t="s">
+      <c r="A5" s="48" t="s">
         <v>185</v>
       </c>
-      <c r="B5" s="42" t="s">
-        <v>177</v>
-      </c>
-      <c r="C5" s="42" t="s">
-        <v>178</v>
+      <c r="B5" s="44" t="s">
+        <v>179</v>
+      </c>
+      <c r="C5" s="44" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="42"/>
-      <c r="B6" s="42" t="s">
-        <v>177</v>
-      </c>
-      <c r="C6" s="42" t="s">
-        <v>178</v>
+      <c r="A6" s="44"/>
+      <c r="B6" s="44" t="s">
+        <v>179</v>
+      </c>
+      <c r="C6" s="44" t="s">
+        <v>180</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="Test@123"/>
+    <hyperlink ref="C2" r:id="rId1" display="Ivonne@2"/>
     <hyperlink ref="C3" r:id="rId2" display="Ivonne@2"/>
     <hyperlink ref="C4" r:id="rId3" display="Test@123"/>
     <hyperlink ref="C5" r:id="rId4" display="Test@123"/>
@@ -1511,11 +1565,11 @@
   </sheetPr>
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="30" t="s">
@@ -1529,7 +1583,7 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="47" t="s">
         <v>187</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -1540,7 +1594,7 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="47" t="s">
         <v>188</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -1551,7 +1605,7 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="47" t="s">
         <v>189</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -1562,7 +1616,7 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="45" t="s">
+      <c r="A5" s="47" t="s">
         <v>187</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -1573,7 +1627,7 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="45"/>
+      <c r="A6" s="47"/>
       <c r="B6" s="2" t="s">
         <v>2</v>
       </c>
@@ -1582,9 +1636,9 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="47"/>
-      <c r="B7" s="47"/>
-      <c r="C7" s="47"/>
+      <c r="A7" s="49"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="49"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1612,65 +1666,66 @@
   <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F12" activeCellId="0" sqref="F12"/>
+      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.89"/>
   </cols>
   <sheetData>
-    <row r="1" s="49" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="48" t="s">
-        <v>120</v>
-      </c>
-      <c r="C1" s="48" t="s">
+    <row r="1" s="51" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="50" t="s">
+        <v>119</v>
+      </c>
+      <c r="C1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="48" t="s">
+      <c r="D1" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="48" t="s">
+      <c r="E1" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="50" t="s">
+        <v>124</v>
+      </c>
+      <c r="G1" s="50" t="s">
         <v>125</v>
       </c>
-      <c r="G1" s="48" t="s">
+      <c r="H1" s="50" t="s">
         <v>126</v>
       </c>
-      <c r="H1" s="48" t="s">
+      <c r="I1" s="50" t="s">
         <v>127</v>
       </c>
-      <c r="I1" s="48" t="s">
-        <v>128</v>
-      </c>
-      <c r="J1" s="48" t="s">
+      <c r="J1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="48" t="s">
+      <c r="K1" s="50" t="s">
         <v>190</v>
       </c>
-      <c r="L1" s="48" t="s">
+      <c r="L1" s="50" t="s">
+        <v>124</v>
+      </c>
+      <c r="M1" s="50" t="s">
         <v>125</v>
       </c>
-      <c r="M1" s="48" t="s">
+      <c r="N1" s="50" t="s">
         <v>126</v>
       </c>
-      <c r="N1" s="48" t="s">
+      <c r="O1" s="50" t="s">
         <v>127</v>
       </c>
-      <c r="O1" s="48" t="s">
-        <v>128</v>
-      </c>
-      <c r="P1" s="48" t="s">
+      <c r="P1" s="50" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="32" t="s">
         <v>191</v>
       </c>
@@ -1687,16 +1742,16 @@
         <v>193</v>
       </c>
       <c r="F2" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="G2" s="32" t="s">
         <v>130</v>
       </c>
-      <c r="G2" s="32" t="s">
-        <v>131</v>
-      </c>
       <c r="H2" s="32" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I2" s="32" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>2</v>
@@ -1705,16 +1760,16 @@
         <v>194</v>
       </c>
       <c r="L2" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="M2" s="32" t="s">
         <v>130</v>
       </c>
-      <c r="M2" s="32" t="s">
-        <v>131</v>
-      </c>
       <c r="N2" s="32" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O2" s="32" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="P2" s="2" t="s">
         <v>2</v>
@@ -1746,10 +1801,10 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.73046875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.94140625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.97"/>
@@ -1759,10 +1814,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>9</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>10</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>0</v>
@@ -1771,557 +1826,557 @@
         <v>1</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F1" s="7"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F2" s="8"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F3" s="8"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="D4" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F4" s="8"/>
     </row>
     <row r="5" customFormat="false" ht="109.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="C5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="D5" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F5" s="8"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="10"/>
       <c r="B6" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="10" t="s">
-        <v>26</v>
-      </c>
       <c r="D6" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F6" s="8"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="D7" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F7" s="8"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="D8" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F8" s="8"/>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="D9" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F9" s="8"/>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="D10" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F10" s="8"/>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F11" s="8"/>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="D12" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F12" s="8"/>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="D13" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F13" s="8"/>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="D14" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F14" s="8"/>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" s="12" t="s">
         <v>50</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>51</v>
       </c>
       <c r="C15" s="12"/>
       <c r="D15" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F15" s="8"/>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="C16" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="C16" s="12" t="s">
-        <v>54</v>
-      </c>
       <c r="D16" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F16" s="8"/>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="C17" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="C17" s="11" t="s">
-        <v>57</v>
-      </c>
       <c r="D17" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F17" s="8"/>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="C18" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="C18" s="11" t="s">
-        <v>60</v>
-      </c>
       <c r="D18" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F18" s="8"/>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B19" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="C19" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="C19" s="11" t="s">
-        <v>63</v>
-      </c>
       <c r="D19" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F19" s="8"/>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="C20" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="D20" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="D20" s="12" t="s">
-        <v>67</v>
-      </c>
       <c r="E20" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F20" s="8"/>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B21" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="C21" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="D21" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="D21" s="11" t="s">
-        <v>71</v>
-      </c>
       <c r="E21" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F21" s="8"/>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B22" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="C22" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="D22" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="D22" s="11" t="s">
-        <v>75</v>
-      </c>
       <c r="E22" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F22" s="8"/>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B23" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="C23" s="11" t="s">
         <v>77</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>78</v>
       </c>
       <c r="D23" s="11"/>
       <c r="E23" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F23" s="8"/>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="B24" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="C24" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="D24" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" s="11" t="s">
         <v>81</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E24" s="11" t="s">
-        <v>82</v>
       </c>
       <c r="F24" s="8"/>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B25" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="C25" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="C25" s="11" t="s">
-        <v>85</v>
-      </c>
       <c r="D25" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E25" s="11"/>
       <c r="F25" s="8"/>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B26" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="C26" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="C26" s="11" t="s">
-        <v>88</v>
-      </c>
       <c r="D26" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F26" s="8"/>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B27" s="12" t="s">
         <v>89</v>
-      </c>
-      <c r="B27" s="12" t="s">
-        <v>90</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F27" s="8"/>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="B28" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="B28" s="12" t="s">
+      <c r="C28" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="C28" s="14" t="s">
-        <v>93</v>
-      </c>
       <c r="D28" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F28" s="8"/>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="C29" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="D29" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="D29" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="E29" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="C30" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="D30" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="D30" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="E30" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B32" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="B32" s="4" t="s">
-        <v>103</v>
-      </c>
       <c r="C32" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="PruebaIvonne@gmail.com"/>
+    <hyperlink ref="B2" r:id="rId1" display="Ivonnetesting@gmail.com"/>
     <hyperlink ref="D2" r:id="rId2" display="Ivonne@1"/>
     <hyperlink ref="E2" r:id="rId3" display="Ivonne@1"/>
     <hyperlink ref="B3" r:id="rId4" display="ralexisrivera@hotmail.com"/>
@@ -2370,14 +2425,14 @@
       <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.73046875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.94140625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="30.02"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B1" s="15"/>
     </row>
@@ -2395,7 +2450,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B4" s="17"/>
     </row>
@@ -2433,11 +2488,11 @@
   </sheetPr>
   <dimension ref="A1:S8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.73046875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.94140625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="37.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="29.26"/>
@@ -2445,7 +2500,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>0</v>
@@ -2470,45 +2525,45 @@
       <c r="R1" s="19"/>
       <c r="S1" s="19"/>
     </row>
-    <row r="2" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="20" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>107</v>
+        <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="22" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="22" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>3</v>
@@ -2516,10 +2571,10 @@
     </row>
     <row r="6" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="22" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C6" s="21" t="s">
         <v>3</v>
@@ -2527,29 +2582,29 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="22" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="22" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="Ivonne@2"/>
+    <hyperlink ref="C2" r:id="rId1" display="Ivonne@1"/>
     <hyperlink ref="C3" r:id="rId2" display="Fer@1997"/>
     <hyperlink ref="C4" r:id="rId3" display="Ivonne@1"/>
     <hyperlink ref="C5" r:id="rId4" display="Ivonne@2"/>
@@ -2575,17 +2630,17 @@
   <dimension ref="A1:S8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.73046875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.94140625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="32.68"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>0</v>
@@ -2618,29 +2673,29 @@
         <v>2</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="22" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="22" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2648,43 +2703,43 @@
         <v>123131</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="22" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="22" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="22" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -2716,10 +2771,10 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="36.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.83"/>
@@ -2728,7 +2783,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>0</v>
@@ -2740,65 +2795,65 @@
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="26"/>
       <c r="B2" s="20" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="22" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="27" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="27" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="29" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="29" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -2827,11 +2882,11 @@
   </sheetPr>
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.73046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="29.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.02"/>
@@ -2847,25 +2902,25 @@
         <v>1</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D1" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="E1" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="F1" s="30" t="s">
         <v>126</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="G1" s="1" t="s">
         <v>127</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>128</v>
       </c>
       <c r="H1" s="31" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -2873,21 +2928,21 @@
         <v>3</v>
       </c>
       <c r="C2" s="32" t="s">
+        <v>128</v>
+      </c>
+      <c r="D2" s="32" t="s">
         <v>129</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="E2" s="32" t="s">
         <v>130</v>
       </c>
-      <c r="E2" s="32" t="s">
-        <v>131</v>
-      </c>
       <c r="F2" s="32" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G2" s="33"/>
       <c r="H2" s="33"/>
     </row>
-    <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -2895,19 +2950,19 @@
         <v>3</v>
       </c>
       <c r="C3" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="D3" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="E3" s="34" t="n">
+        <v>43738</v>
+      </c>
+      <c r="F3" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="D3" s="32" t="s">
-        <v>130</v>
-      </c>
-      <c r="E3" s="32" t="s">
-        <v>131</v>
-      </c>
-      <c r="F3" s="32" t="s">
+      <c r="G3" s="32" t="s">
         <v>133</v>
-      </c>
-      <c r="G3" s="32" t="s">
-        <v>134</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>2</v>
@@ -2918,19 +2973,19 @@
         <v>4</v>
       </c>
       <c r="B4" s="32" t="s">
+        <v>134</v>
+      </c>
+      <c r="C4" s="32" t="s">
         <v>135</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="D4" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="E4" s="32" t="s">
         <v>136</v>
       </c>
-      <c r="D4" s="32" t="s">
-        <v>130</v>
-      </c>
-      <c r="E4" s="32" t="s">
+      <c r="F4" s="32" t="s">
         <v>137</v>
-      </c>
-      <c r="F4" s="32" t="s">
-        <v>138</v>
       </c>
       <c r="G4" s="33"/>
       <c r="H4" s="33"/>
@@ -2940,25 +2995,25 @@
         <v>4</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C5" s="32" t="s">
+        <v>138</v>
+      </c>
+      <c r="D5" s="32" t="s">
         <v>139</v>
       </c>
-      <c r="D5" s="32" t="s">
-        <v>140</v>
-      </c>
       <c r="E5" s="32" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F5" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="G5" s="32" t="s">
         <v>133</v>
       </c>
-      <c r="G5" s="32" t="s">
-        <v>134</v>
-      </c>
       <c r="H5" s="32" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="21.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2966,19 +3021,19 @@
         <v>4</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C6" s="32" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D6" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="E6" s="32" t="s">
         <v>130</v>
       </c>
-      <c r="E6" s="32" t="s">
-        <v>131</v>
-      </c>
       <c r="F6" s="32" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G6" s="33"/>
       <c r="H6" s="33"/>
@@ -2988,17 +3043,17 @@
         <v>4</v>
       </c>
       <c r="B7" s="32" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C7" s="33"/>
       <c r="D7" s="32" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E7" s="32" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F7" s="32" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G7" s="33"/>
       <c r="H7" s="33"/>
@@ -3008,19 +3063,19 @@
         <v>4</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C8" s="32" t="s">
+        <v>142</v>
+      </c>
+      <c r="D8" s="32" t="s">
         <v>143</v>
       </c>
-      <c r="D8" s="32" t="s">
-        <v>144</v>
-      </c>
       <c r="E8" s="32" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F8" s="32" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G8" s="33"/>
       <c r="H8" s="33"/>
@@ -3030,19 +3085,19 @@
         <v>4</v>
       </c>
       <c r="B9" s="32" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C9" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="D9" s="32" t="s">
         <v>145</v>
       </c>
-      <c r="D9" s="32" t="s">
+      <c r="E9" s="32" t="s">
         <v>146</v>
       </c>
-      <c r="E9" s="32" t="s">
-        <v>147</v>
-      </c>
       <c r="F9" s="32" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G9" s="33"/>
       <c r="H9" s="33"/>
@@ -3052,16 +3107,16 @@
         <v>4</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D10" s="33"/>
       <c r="E10" s="32" t="s">
-        <v>149</v>
-      </c>
-      <c r="F10" s="34" t="n">
+        <v>148</v>
+      </c>
+      <c r="F10" s="35" t="n">
         <v>44085</v>
       </c>
       <c r="G10" s="33"/>
@@ -3072,19 +3127,19 @@
         <v>4</v>
       </c>
       <c r="B11" s="32" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C11" s="32" t="s">
+        <v>149</v>
+      </c>
+      <c r="D11" s="32" t="s">
         <v>150</v>
       </c>
-      <c r="D11" s="32" t="s">
-        <v>151</v>
-      </c>
-      <c r="E11" s="35" t="n">
+      <c r="E11" s="36" t="n">
         <v>43737</v>
       </c>
       <c r="F11" s="32" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G11" s="33"/>
       <c r="H11" s="33"/>
@@ -3094,16 +3149,16 @@
         <v>4</v>
       </c>
       <c r="B12" s="32" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C12" s="32" t="s">
+        <v>151</v>
+      </c>
+      <c r="D12" s="32" t="s">
         <v>152</v>
       </c>
-      <c r="D12" s="32" t="s">
-        <v>153</v>
-      </c>
       <c r="E12" s="32" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F12" s="33"/>
       <c r="G12" s="33"/>
@@ -3114,16 +3169,16 @@
         <v>4</v>
       </c>
       <c r="B13" s="32" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C13" s="32" t="s">
+        <v>153</v>
+      </c>
+      <c r="D13" s="32" t="s">
         <v>154</v>
       </c>
-      <c r="D13" s="32" t="s">
-        <v>155</v>
-      </c>
       <c r="E13" s="32" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F13" s="33"/>
       <c r="G13" s="33"/>
@@ -3134,13 +3189,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="32" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C14" s="32" t="s">
+        <v>155</v>
+      </c>
+      <c r="D14" s="32" t="s">
         <v>156</v>
-      </c>
-      <c r="D14" s="32" t="s">
-        <v>157</v>
       </c>
       <c r="E14" s="33"/>
       <c r="F14" s="33"/>
@@ -3152,19 +3207,19 @@
         <v>4</v>
       </c>
       <c r="B15" s="32" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C15" s="32" t="s">
+        <v>157</v>
+      </c>
+      <c r="D15" s="32" t="s">
         <v>158</v>
       </c>
-      <c r="D15" s="32" t="s">
+      <c r="E15" s="35" t="n">
+        <v>43686</v>
+      </c>
+      <c r="F15" s="32" t="s">
         <v>159</v>
-      </c>
-      <c r="E15" s="34" t="n">
-        <v>43686</v>
-      </c>
-      <c r="F15" s="32" t="s">
-        <v>160</v>
       </c>
       <c r="G15" s="33"/>
       <c r="H15" s="33"/>
@@ -3174,7 +3229,7 @@
         <v>4</v>
       </c>
       <c r="B16" s="32" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C16" s="33"/>
       <c r="D16" s="33"/>
@@ -3188,7 +3243,7 @@
         <v>4</v>
       </c>
       <c r="B17" s="32" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C17" s="33"/>
       <c r="D17" s="33"/>
@@ -3202,19 +3257,19 @@
         <v>4</v>
       </c>
       <c r="B18" s="32" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C18" s="32" t="s">
+        <v>160</v>
+      </c>
+      <c r="D18" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="E18" s="32" t="s">
         <v>161</v>
       </c>
-      <c r="D18" s="32" t="s">
-        <v>130</v>
-      </c>
-      <c r="E18" s="32" t="s">
+      <c r="F18" s="32" t="s">
         <v>162</v>
-      </c>
-      <c r="F18" s="32" t="s">
-        <v>163</v>
       </c>
       <c r="G18" s="33"/>
       <c r="H18" s="33"/>
@@ -3224,23 +3279,23 @@
         <v>4</v>
       </c>
       <c r="B19" s="32" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C19" s="32" t="s">
+        <v>163</v>
+      </c>
+      <c r="D19" s="32" t="s">
         <v>164</v>
       </c>
-      <c r="D19" s="32" t="s">
+      <c r="E19" s="32" t="s">
         <v>165</v>
-      </c>
-      <c r="E19" s="32" t="s">
-        <v>166</v>
       </c>
       <c r="F19" s="33"/>
       <c r="G19" s="32" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H19" s="32" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -3266,10 +3321,10 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.86"/>
@@ -3284,30 +3339,30 @@
         <v>1</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D1" s="30" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" display="Ivonne@1"/>
-    <hyperlink ref="D2" r:id="rId2" display="PruebaIvonne@gmail.com"/>
+    <hyperlink ref="D2" r:id="rId2" display="Ivonnetesting@gmail.com"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -3326,11 +3381,11 @@
   </sheetPr>
   <dimension ref="A1:AMJ2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.26"/>
@@ -3340,10 +3395,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="30" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C1" s="30" t="s">
         <v>0</v>
@@ -3352,18 +3407,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" s="38" customFormat="true" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="36" t="s">
+    <row r="2" s="39" customFormat="true" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="37" t="s">
+        <v>166</v>
+      </c>
+      <c r="B2" s="37" t="s">
         <v>167</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="C2" s="38" t="s">
         <v>168</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="D2" s="37" t="s">
         <v>169</v>
-      </c>
-      <c r="D2" s="36" t="s">
-        <v>170</v>
       </c>
       <c r="AMI2" s="0"/>
       <c r="AMJ2" s="0"/>
@@ -3530,6 +3585,153 @@
 </p:properties>
 </file>
 
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010056756CBDA4A3A748BF1D83071746FE3E" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7bae607ec0de29d4a7bae1d5bc523f98">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ff4d210d-33a5-4669-9f33-307c93654564" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8c9183ad491ec9cebc874e40620de0ab" ns2:_="">
+    <xsd:import namespace="ff4d210d-33a5-4669-9f33-307c93654564"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="ff4d210d-33a5-4669-9f33-307c93654564" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{53E9EC27-C157-4782-BD18-147EB4E38F0C}"/>
 </file>
@@ -3540,4 +3742,16 @@
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0F34C71-506A-4473-A656-A185F5B55F12}"/>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{11812F1D-EEC5-4D54-A24B-B233C29C67BA}"/>
+</file>
+
+<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2190D3CC-64C7-4D2E-85C6-6A9DA025C76A}"/>
+</file>
+
+<file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7F2F21E7-84A7-48D1-AE9C-5CFA08B7DDBE}"/>
 </file>
--- a/hexaboards/prueba.xlsx
+++ b/hexaboards/prueba.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" state="visible" r:id="rId2"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="188">
   <si>
     <t xml:space="preserve">Username</t>
   </si>
@@ -45,6 +45,9 @@
     <t xml:space="preserve">Ivonne</t>
   </si>
   <si>
+    <t xml:space="preserve">Ivonne@1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ivonne@2</t>
   </si>
   <si>
@@ -75,52 +78,37 @@
     <t xml:space="preserve">Ivonnetesting@gmail.com</t>
   </si>
   <si>
-    <t xml:space="preserve">Ivonne@1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alexis Rivera</t>
+    <t xml:space="preserve">Andrea</t>
   </si>
   <si>
     <t xml:space="preserve">ralexisrivera@hotmail.com</t>
   </si>
   <si>
-    <t xml:space="preserve">Alex_Riverar</t>
+    <t xml:space="preserve">Azariel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rmarcorivera@hotmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lorem ipsum dolor sit amet consectetur adipiscing elit interdumd proin duis sagittis euismod ante ornare felisd augue nisl sociis netus bibendum cursus penatibus. Mattis natoque magna sapien nostra tortor gravida pharetra ultricies cras maurisd ornare congue curae rhoncus nullam cum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">remployee123@hotmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Employees321r</t>
   </si>
   <si>
     <t xml:space="preserve">Testnine*2</t>
   </si>
   <si>
-    <t xml:space="preserve">Marcos Rivera</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rmarcorivera@hotmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alex-Riverar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lorem ipsum dolor sit amet consectetur adipiscing elit interdumd proin duis sagittis euismod ante ornare felisd augue nisl sociis netus bibendum cursus penatibus. Mattis natoque magna sapien nostra tortor gravida pharetra ultricies cras maurisd ornare congue curae rhoncus nullam cum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">remployee123@hotmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Employees321r</t>
-  </si>
-  <si>
     <t xml:space="preserve">remployee_123@hotmail.com</t>
   </si>
   <si>
     <t xml:space="preserve">Emmp109r</t>
   </si>
   <si>
-    <t xml:space="preserve">Carlos Contreras</t>
-  </si>
-  <si>
-    <t xml:space="preserve">remployee123hotmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Employee43r</t>
+    <t xml:space="preserve">JennyRivera</t>
   </si>
   <si>
     <t xml:space="preserve">Maria Jose</t>
@@ -595,15 +583,6 @@
   </si>
   <si>
     <t xml:space="preserve">User</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Andrea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Azariel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JennyRivera</t>
   </si>
   <si>
     <t xml:space="preserve">Name2</t>
@@ -846,7 +825,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="51">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1033,10 +1012,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1134,11 +1109,11 @@
   </sheetPr>
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C3" activeCellId="1" sqref="C7 C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="16.01953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="32.42"/>
@@ -1163,9 +1138,11 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3"/>
@@ -1175,15 +1152,15 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>2</v>
@@ -1195,7 +1172,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>2</v>
@@ -1203,13 +1180,17 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="Ivonne@1"/>
+    <hyperlink ref="B3" r:id="rId2" display="Ivonne@2"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -1227,11 +1208,11 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="C7 B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.5234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.93"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.02"/>
@@ -1245,10 +1226,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="41" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D1" s="41" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1256,13 +1237,13 @@
         <v>2</v>
       </c>
       <c r="B2" s="42" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -1287,44 +1268,44 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+      <selection pane="topLeft" activeCell="A6" activeCellId="1" sqref="C7 A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.5234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="40.69"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B1" s="41" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="43" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="43" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -1346,10 +1327,10 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="C7 D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="48.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.43"/>
@@ -1359,7 +1340,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="30" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>0</v>
@@ -1368,54 +1349,54 @@
         <v>1</v>
       </c>
       <c r="D1" s="30" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="58.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="44" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="44" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" s="46" customFormat="true" ht="121.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="45" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B3" s="44" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C3" s="44" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="4" s="46" customFormat="true" ht="155.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="45" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B4" s="44" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C4" s="44" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="11" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B5" s="44" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C5" s="44" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1423,19 +1404,19 @@
         <v>1234567</v>
       </c>
       <c r="B6" s="44" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C6" s="44" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="47"/>
+      <c r="A7" s="4"/>
       <c r="B7" s="44" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C7" s="44" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -1466,10 +1447,10 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
+      <selection pane="topLeft" activeCell="A12" activeCellId="1" sqref="C7 A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="34.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.69"/>
@@ -1478,7 +1459,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="30" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>0</v>
@@ -1489,55 +1470,55 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="44" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B2" s="44" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="44" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="44" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="44" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="44" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B4" s="44" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C4" s="44" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="48" t="s">
-        <v>185</v>
+      <c r="A5" s="47" t="s">
+        <v>181</v>
       </c>
       <c r="B5" s="44" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C5" s="44" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="44"/>
       <c r="B6" s="44" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C6" s="44" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -1565,15 +1546,15 @@
   </sheetPr>
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A4" activeCellId="1" sqref="C7 A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.5234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="30" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>0</v>
@@ -1583,62 +1564,62 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="47" t="s">
-        <v>187</v>
+      <c r="A2" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="47" t="s">
-        <v>188</v>
+      <c r="A3" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="32" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="47" t="s">
-        <v>189</v>
+      <c r="A4" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="32" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="47" t="s">
-        <v>187</v>
+      <c r="A5" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="32" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="47"/>
+      <c r="A6" s="4"/>
       <c r="B6" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="32" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="49"/>
-      <c r="B7" s="49"/>
-      <c r="C7" s="49"/>
+      <c r="A7" s="48"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="48"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1665,111 +1646,111 @@
   </sheetPr>
   <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G2" activeCellId="1" sqref="C7 G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.07421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.89"/>
   </cols>
   <sheetData>
-    <row r="1" s="51" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="50" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="50" t="s">
-        <v>119</v>
-      </c>
-      <c r="C1" s="50" t="s">
+    <row r="1" s="50" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="49" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="50" t="s">
+      <c r="D1" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="50" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="50" t="s">
-        <v>124</v>
-      </c>
-      <c r="G1" s="50" t="s">
-        <v>125</v>
-      </c>
-      <c r="H1" s="50" t="s">
-        <v>126</v>
-      </c>
-      <c r="I1" s="50" t="s">
-        <v>127</v>
-      </c>
-      <c r="J1" s="50" t="s">
+      <c r="E1" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="49" t="s">
+        <v>120</v>
+      </c>
+      <c r="G1" s="49" t="s">
+        <v>121</v>
+      </c>
+      <c r="H1" s="49" t="s">
+        <v>122</v>
+      </c>
+      <c r="I1" s="49" t="s">
+        <v>123</v>
+      </c>
+      <c r="J1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="50" t="s">
-        <v>190</v>
-      </c>
-      <c r="L1" s="50" t="s">
-        <v>124</v>
-      </c>
-      <c r="M1" s="50" t="s">
-        <v>125</v>
-      </c>
-      <c r="N1" s="50" t="s">
-        <v>126</v>
-      </c>
-      <c r="O1" s="50" t="s">
-        <v>127</v>
-      </c>
-      <c r="P1" s="50" t="s">
+      <c r="K1" s="49" t="s">
+        <v>183</v>
+      </c>
+      <c r="L1" s="49" t="s">
+        <v>120</v>
+      </c>
+      <c r="M1" s="49" t="s">
+        <v>121</v>
+      </c>
+      <c r="N1" s="49" t="s">
+        <v>122</v>
+      </c>
+      <c r="O1" s="49" t="s">
+        <v>123</v>
+      </c>
+      <c r="P1" s="49" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="32" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="32" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E2" s="32" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="F2" s="32" t="s">
+        <v>125</v>
+      </c>
+      <c r="G2" s="32" t="s">
+        <v>126</v>
+      </c>
+      <c r="H2" s="32" t="s">
+        <v>126</v>
+      </c>
+      <c r="I2" s="32" t="s">
         <v>129</v>
-      </c>
-      <c r="G2" s="32" t="s">
-        <v>130</v>
-      </c>
-      <c r="H2" s="32" t="s">
-        <v>130</v>
-      </c>
-      <c r="I2" s="32" t="s">
-        <v>133</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="K2" s="32" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="L2" s="32" t="s">
+        <v>125</v>
+      </c>
+      <c r="M2" s="32" t="s">
+        <v>126</v>
+      </c>
+      <c r="N2" s="32" t="s">
+        <v>126</v>
+      </c>
+      <c r="O2" s="32" t="s">
         <v>129</v>
-      </c>
-      <c r="M2" s="32" t="s">
-        <v>130</v>
-      </c>
-      <c r="N2" s="32" t="s">
-        <v>130</v>
-      </c>
-      <c r="O2" s="32" t="s">
-        <v>133</v>
       </c>
       <c r="P2" s="2" t="s">
         <v>2</v>
@@ -1800,11 +1781,11 @@
   </sheetPr>
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.94140625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="16.01953125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.97"/>
@@ -1814,10 +1795,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>0</v>
@@ -1826,25 +1807,25 @@
         <v>1</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F1" s="7"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="F2" s="8"/>
     </row>
@@ -1856,522 +1837,522 @@
         <v>15</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="F3" s="8"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="F4" s="8"/>
     </row>
     <row r="5" customFormat="false" ht="109.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="E5" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F5" s="8"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="10"/>
       <c r="B6" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="8"/>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="10" t="s">
+      <c r="B7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="8"/>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>28</v>
+      <c r="C7" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>17</v>
+        <v>3</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="F7" s="8"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F8" s="8"/>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F9" s="8"/>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F10" s="8"/>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F11" s="8"/>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F12" s="8"/>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F13" s="8"/>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F14" s="8"/>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C15" s="12"/>
       <c r="D15" s="12" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F15" s="8"/>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F16" s="8"/>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F17" s="8"/>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F18" s="8"/>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F19" s="8"/>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F20" s="8"/>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F21" s="8"/>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F22" s="8"/>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D23" s="11"/>
       <c r="E23" s="11" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F23" s="8"/>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="12" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F24" s="8"/>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E25" s="11"/>
       <c r="F25" s="8"/>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F26" s="8"/>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F27" s="8"/>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="13" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F28" s="8"/>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="4" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="4" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -2380,29 +2361,36 @@
     <hyperlink ref="D2" r:id="rId2" display="Ivonne@1"/>
     <hyperlink ref="E2" r:id="rId3" display="Ivonne@1"/>
     <hyperlink ref="B3" r:id="rId4" display="ralexisrivera@hotmail.com"/>
-    <hyperlink ref="B4" r:id="rId5" display="rmarcorivera@hotmail.com"/>
-    <hyperlink ref="B5" r:id="rId6" display="remployee123@hotmail.com"/>
-    <hyperlink ref="B6" r:id="rId7" display="remployee_123@hotmail.com"/>
-    <hyperlink ref="B12" r:id="rId8" display="rmarisiempre@hotmail.com"/>
-    <hyperlink ref="B13" r:id="rId9" display="rhirosasiem@hotmail.com"/>
-    <hyperlink ref="B14" r:id="rId10" display="rcantaralMari@hotmail.com"/>
-    <hyperlink ref="B15" r:id="rId11" display="rtesinghuro@hotmail.com"/>
-    <hyperlink ref="B16" r:id="rId12" display="rnumero@hotmail.com"/>
-    <hyperlink ref="B17" r:id="rId13" display="rfernandasiempre@hotmail.com"/>
-    <hyperlink ref="B18" r:id="rId14" display="randyvaz@hotmail.com"/>
-    <hyperlink ref="B19" r:id="rId15" display="roveriem@hotmail.com"/>
-    <hyperlink ref="C19" r:id="rId16" display="Employee@r"/>
-    <hyperlink ref="B20" r:id="rId17" display="redmanu@hotmail.com"/>
-    <hyperlink ref="B21" r:id="rId18" display="remployee892@hotmail.com"/>
-    <hyperlink ref="B22" r:id="rId19" display="rbrayanfa@hotmail.com"/>
-    <hyperlink ref="B23" r:id="rId20" display="rcargas@hotmail.com"/>
-    <hyperlink ref="B24" r:id="rId21" display="rpomllak@hotmail.com"/>
-    <hyperlink ref="B25" r:id="rId22" display="remployeesaim@hotmail.com"/>
-    <hyperlink ref="B26" r:id="rId23" display="rcorgmas@hotmail.com"/>
-    <hyperlink ref="B27" r:id="rId24" display="roptamolog@hotmail.com"/>
-    <hyperlink ref="B28" r:id="rId25" display="rsadasd@hotmail.com"/>
-    <hyperlink ref="B29" r:id="rId26" display="randres@gmail.com"/>
-    <hyperlink ref="B30" r:id="rId27" display="randrea@gmail.com"/>
+    <hyperlink ref="D3" r:id="rId5" display="Ivonne@1"/>
+    <hyperlink ref="E3" r:id="rId6" display="Ivonne@1"/>
+    <hyperlink ref="B4" r:id="rId7" display="rmarcorivera@hotmail.com"/>
+    <hyperlink ref="D4" r:id="rId8" display="Ivonne@1"/>
+    <hyperlink ref="E4" r:id="rId9" display="Ivonne@1"/>
+    <hyperlink ref="B5" r:id="rId10" display="remployee123@hotmail.com"/>
+    <hyperlink ref="B6" r:id="rId11" display="remployee_123@hotmail.com"/>
+    <hyperlink ref="B7" r:id="rId12" display="rmarcorivera@hotmail.com"/>
+    <hyperlink ref="D7" r:id="rId13" display="Ivonne@1"/>
+    <hyperlink ref="E7" r:id="rId14" display="Ivonne@1"/>
+    <hyperlink ref="B12" r:id="rId15" display="rmarisiempre@hotmail.com"/>
+    <hyperlink ref="B13" r:id="rId16" display="rhirosasiem@hotmail.com"/>
+    <hyperlink ref="B14" r:id="rId17" display="rcantaralMari@hotmail.com"/>
+    <hyperlink ref="B15" r:id="rId18" display="rtesinghuro@hotmail.com"/>
+    <hyperlink ref="B16" r:id="rId19" display="rnumero@hotmail.com"/>
+    <hyperlink ref="B17" r:id="rId20" display="rfernandasiempre@hotmail.com"/>
+    <hyperlink ref="B18" r:id="rId21" display="randyvaz@hotmail.com"/>
+    <hyperlink ref="B19" r:id="rId22" display="roveriem@hotmail.com"/>
+    <hyperlink ref="C19" r:id="rId23" display="Employee@r"/>
+    <hyperlink ref="B20" r:id="rId24" display="redmanu@hotmail.com"/>
+    <hyperlink ref="B21" r:id="rId25" display="remployee892@hotmail.com"/>
+    <hyperlink ref="B22" r:id="rId26" display="rbrayanfa@hotmail.com"/>
+    <hyperlink ref="B23" r:id="rId27" display="rcargas@hotmail.com"/>
+    <hyperlink ref="B24" r:id="rId28" display="rpomllak@hotmail.com"/>
+    <hyperlink ref="B25" r:id="rId29" display="remployeesaim@hotmail.com"/>
+    <hyperlink ref="B26" r:id="rId30" display="rcorgmas@hotmail.com"/>
+    <hyperlink ref="B27" r:id="rId31" display="roptamolog@hotmail.com"/>
+    <hyperlink ref="B28" r:id="rId32" display="rsadasd@hotmail.com"/>
+    <hyperlink ref="B29" r:id="rId33" display="randres@gmail.com"/>
+    <hyperlink ref="B30" r:id="rId34" display="randrea@gmail.com"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
@@ -2422,17 +2410,17 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
+      <selection pane="topLeft" activeCell="A11" activeCellId="1" sqref="C7 A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.94140625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="16.01953125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="30.02"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B1" s="15"/>
     </row>
@@ -2450,7 +2438,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="16" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B4" s="17"/>
     </row>
@@ -2488,11 +2476,11 @@
   </sheetPr>
   <dimension ref="A1:S8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C21" activeCellId="1" sqref="C7 C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.94140625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="16.01953125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="37.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="29.26"/>
@@ -2500,7 +2488,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>0</v>
@@ -2527,79 +2515,79 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="20" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="22" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="22" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="22" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="22" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="22" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -2630,17 +2618,17 @@
   <dimension ref="A1:S8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="C7 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.94140625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="16.01953125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="32.68"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>0</v>
@@ -2667,35 +2655,35 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="22" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="22" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="22" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2703,43 +2691,43 @@
         <v>123131</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="22" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="22" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="22" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -2770,11 +2758,11 @@
   </sheetPr>
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C3" activeCellId="1" sqref="C7 C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="36.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.83"/>
@@ -2783,7 +2771,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>0</v>
@@ -2795,65 +2783,65 @@
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="26"/>
       <c r="B2" s="20" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="22" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="27" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="29" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="29" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -2883,10 +2871,10 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="1" sqref="C7 B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="16.01953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="29.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.02"/>
@@ -2902,19 +2890,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D1" s="30" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E1" s="30" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F1" s="30" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="H1" s="31" t="s">
         <v>0</v>
@@ -2925,19 +2913,19 @@
         <v>2</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D2" s="32" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E2" s="32" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F2" s="32" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="G2" s="33"/>
       <c r="H2" s="33"/>
@@ -2947,22 +2935,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C3" s="32" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D3" s="32" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E3" s="34" t="n">
         <v>43738</v>
       </c>
       <c r="F3" s="32" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="G3" s="32" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>2</v>
@@ -2970,47 +2958,47 @@
     </row>
     <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="32" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C4" s="32" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D4" s="32" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E4" s="32" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F4" s="32" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="G4" s="33"/>
       <c r="H4" s="33"/>
     </row>
     <row r="5" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="32" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="C5" s="32" t="s">
         <v>134</v>
       </c>
-      <c r="C5" s="32" t="s">
-        <v>138</v>
-      </c>
       <c r="D5" s="32" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="E5" s="32" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F5" s="32" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="G5" s="32" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="H5" s="32" t="s">
         <v>2</v>
@@ -3018,103 +3006,103 @@
     </row>
     <row r="6" customFormat="false" ht="21.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="32" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C6" s="32" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D6" s="32" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E6" s="32" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F6" s="32" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="G6" s="33"/>
       <c r="H6" s="33"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="32" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B7" s="32" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C7" s="33"/>
       <c r="D7" s="32" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="E7" s="32" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F7" s="32" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="G7" s="33"/>
       <c r="H7" s="33"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="32" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C8" s="32" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D8" s="32" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="E8" s="32" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F8" s="32" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="G8" s="33"/>
       <c r="H8" s="33"/>
     </row>
     <row r="9" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="32" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B9" s="32" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C9" s="32" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D9" s="32" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="E9" s="32" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F9" s="32" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="G9" s="33"/>
       <c r="H9" s="33"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="32" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D10" s="33"/>
       <c r="E10" s="32" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="F10" s="35" t="n">
         <v>44085</v>
@@ -3124,41 +3112,41 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="32" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B11" s="32" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C11" s="32" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D11" s="32" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E11" s="36" t="n">
         <v>43737</v>
       </c>
       <c r="F11" s="32" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="G11" s="33"/>
       <c r="H11" s="33"/>
     </row>
     <row r="12" customFormat="false" ht="359.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="32" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B12" s="32" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C12" s="32" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D12" s="32" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="E12" s="32" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F12" s="33"/>
       <c r="G12" s="33"/>
@@ -3166,19 +3154,19 @@
     </row>
     <row r="13" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="32" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B13" s="32" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C13" s="32" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D13" s="32" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E13" s="32" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F13" s="33"/>
       <c r="G13" s="33"/>
@@ -3186,16 +3174,16 @@
     </row>
     <row r="14" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="32" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B14" s="32" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C14" s="32" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D14" s="32" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="E14" s="33"/>
       <c r="F14" s="33"/>
@@ -3204,32 +3192,32 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="32" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B15" s="32" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C15" s="32" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D15" s="32" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="E15" s="35" t="n">
         <v>43686</v>
       </c>
       <c r="F15" s="32" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="G15" s="33"/>
       <c r="H15" s="33"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="32" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B16" s="32" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C16" s="33"/>
       <c r="D16" s="33"/>
@@ -3240,10 +3228,10 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="32" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B17" s="32" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C17" s="33"/>
       <c r="D17" s="33"/>
@@ -3254,45 +3242,45 @@
     </row>
     <row r="18" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="32" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B18" s="32" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C18" s="32" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D18" s="32" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E18" s="32" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="F18" s="32" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="G18" s="33"/>
       <c r="H18" s="33"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="32" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B19" s="32" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C19" s="32" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D19" s="32" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E19" s="32" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F19" s="33"/>
       <c r="G19" s="32" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="H19" s="32" t="s">
         <v>2</v>
@@ -3321,10 +3309,10 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="C7 B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.86"/>
@@ -3339,10 +3327,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D1" s="30" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3350,13 +3338,13 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -3382,10 +3370,10 @@
   <dimension ref="A1:AMJ2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="1" sqref="C7 C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.26"/>
@@ -3395,10 +3383,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C1" s="30" t="s">
         <v>0</v>
@@ -3409,16 +3397,16 @@
     </row>
     <row r="2" s="39" customFormat="true" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="37" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B2" s="37" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C2" s="38" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D2" s="37" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="AMI2" s="0"/>
       <c r="AMJ2" s="0"/>
